--- a/biology/Botanique/Leptocylindraceae/Leptocylindraceae.xlsx
+++ b/biology/Botanique/Leptocylindraceae/Leptocylindraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Leptocylindraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Chaetocerotales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Leptocylindrus, dérivé du grec λεπτός / leptós, mince, et κυλίνδω / kylíndo, rouler (d'où la forme cylindrique), en référence à la forme de la diatomée.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Leptocylindrus se présente comme suit : « Cellules cylindriques allongées. Coquilles circulaires, sans structure. Ceinture hyaline, sans écaille ni anneau »[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Leptocylindrus se présente comme suit : « Cellules cylindriques allongées. Coquilles circulaires, sans structure. Ceinture hyaline, sans écaille ni anneau ». 
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 juillet 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 juillet 2022) :
 Leptocylindrus P.T. Cleve in C.G.J. Petersen, 1889
 Tenuicylindrus D.Nanjappa &amp; A.Zingone, 2013</t>
         </is>
@@ -631,10 +651,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leptocylindraceae Lebour, 1930[2].
-World Register of Marine Species                               (3 juillet 2022)[3] classe cette famille dans la classe des Coscinodiscophyceae et l'ordre des Leptocylindrales.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leptocylindraceae Lebour, 1930.
+World Register of Marine Species                               (3 juillet 2022) classe cette famille dans la classe des Coscinodiscophyceae et l'ordre des Leptocylindrales.
 </t>
         </is>
       </c>
